--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3156.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3156.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.127001004262475</v>
+        <v>0.8952653408050537</v>
       </c>
       <c r="B1">
-        <v>1.955540278831342</v>
+        <v>1.327225923538208</v>
       </c>
       <c r="C1">
-        <v>2.435552505342408</v>
+        <v>2.749033451080322</v>
       </c>
       <c r="D1">
-        <v>2.809330471374526</v>
+        <v>3.612663984298706</v>
       </c>
       <c r="E1">
-        <v>3.51834305082545</v>
+        <v>1.769871115684509</v>
       </c>
     </row>
   </sheetData>
